--- a/Mastodon_usernum/Mastodonの各インスタンスにおけるユーザー数の推移.xlsx
+++ b/Mastodon_usernum/Mastodonの各インスタンスにおけるユーザー数の推移.xlsx
@@ -803,19 +803,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pawoo.net!$A$1:$A$1226</c:f>
+              <c:f>pawoo.net!$A$1:$A$10000</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d\ h:mm;@</c:formatCode>
-                <c:ptCount val="1226"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pawoo.net!$B$1:$B$1226</c:f>
+              <c:f>pawoo.net!$B$1:$B$10000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1226"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -858,19 +858,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mstdn.jp!$A$1:$A$1406</c:f>
+              <c:f>mstdn.jp!$A$1:$A$10000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="1406"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mstdn.jp!$B$1:$B$1406</c:f>
+              <c:f>mstdn.jp!$B$1:$B$10000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1406"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -913,19 +913,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mastodon.social!$A$1:$A$1466</c:f>
+              <c:f>mastodon.social!$A$1:$A$10000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="1466"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mastodon.social!$B$1:$B$1466</c:f>
+              <c:f>mastodon.social!$B$1:$B$10000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1466"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -968,19 +968,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mastodon.cloud!$A$1:$A$1466</c:f>
+              <c:f>mastodon.cloud!$A$1:$A$10000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="1466"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mastodon.cloud!$B$1:$B$1466</c:f>
+              <c:f>mastodon.cloud!$B$1:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1466"/>
+                <c:ptCount val="1000"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1023,19 +1023,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>horiedon.com!$A$1:$A$241</c:f>
+              <c:f>horiedon.com!$A$1:$A$10000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="241"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>horiedon.com!$B$1:$B$241</c:f>
+              <c:f>horiedon.com!$B$1:$B$10000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="241"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6784,7 +6784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1406"/>
   <sheetViews>
-    <sheetView topLeftCell="A978" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B978" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -12427,7 +12427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1466"/>
   <sheetViews>
-    <sheetView topLeftCell="A693" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B693" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -24193,7 +24193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>

--- a/Mastodon_usernum/Mastodonの各インスタンスにおけるユーザー数の推移.xlsx
+++ b/Mastodon_usernum/Mastodonの各インスタンスにおけるユーザー数の推移.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\PROGRAM\cs\Mastodon_usernum\Mastodon_usernum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Program\cs\Mastodon_usernum\Mastodon_usernum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -977,10 +977,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mastodon.cloud!$B$1:$B$1000</c:f>
+              <c:f>mastodon.cloud!$B$1:$B$10000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="10000"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
